--- a/Cards.xlsx
+++ b/Cards.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Military</t>
   </si>
   <si>
-    <t>Words</t>
+    <t>The militarist elections are approaching.</t>
   </si>
   <si>
     <t>red</t>
@@ -67,7 +67,7 @@
     <t>1+p,2-r</t>
   </si>
   <si>
-    <t>["Garner support for the militarists." ,"Gain 1 red, Lose 2 purple"]</t>
+    <t>["Garner support for the militarists." ,"Gain 1 red, Lose 2 purple", "Add card 07"]</t>
   </si>
   <si>
     <t>1+r,2-p</t>
@@ -85,6 +85,9 @@
     <t>Industry</t>
   </si>
   <si>
+    <t>The industrialist elections are approaching.</t>
+  </si>
+  <si>
     <t>orange</t>
   </si>
   <si>
@@ -97,7 +100,7 @@
     <t>1+g,2-o</t>
   </si>
   <si>
-    <t>["Garner support for the industrialists." ,"Gain 1 orange, Lose 2 green"]</t>
+    <t>["Garner support for the industrialists." ,"Gain 1 orange, Lose 2 green", "Add card 08"]</t>
   </si>
   <si>
     <t>1+o,2-g</t>
@@ -115,6 +118,9 @@
     <t>Science</t>
   </si>
   <si>
+    <t>The scientific elections are approaching.</t>
+  </si>
+  <si>
     <t>blue</t>
   </si>
   <si>
@@ -127,7 +133,7 @@
     <t>1+y,2-b</t>
   </si>
   <si>
-    <t>["Garner support for the scientists." ,"Gain 1 blue, Lose 2 yellow"]</t>
+    <t>["Garner support for the scientists." ,"Gain 1 blue, Lose 2 yellow", "Add card 09"]</t>
   </si>
   <si>
     <t>1+b ,2-y</t>
@@ -145,7 +151,13 @@
     <t>Diplomacy</t>
   </si>
   <si>
-    <t>["Garner support for the pacifists." ,"Gain 1 purple, Lose 2 red"]</t>
+    <t>The diplomatic elections are approaching.</t>
+  </si>
+  <si>
+    <t>["Garner support for the militarists." ,"Gain 1 red, Lose 2 purple"]</t>
+  </si>
+  <si>
+    <t>["Garner support for the pacifists." ,"Gain 1 purple, Lose 2 red","Add card 10"]</t>
   </si>
   <si>
     <t>["Rig the election in favor of the pacifists." ,"Gain 1 purple, Lose 3 red"]</t>
@@ -160,6 +172,15 @@
     <t>Ecology</t>
   </si>
   <si>
+    <t>The ecologist elections are approaching.</t>
+  </si>
+  <si>
+    <t>["Garner support for the industrialists." ,"Gain 1 orange, Lose 2 green"]</t>
+  </si>
+  <si>
+    <t>["Garner support for the ecologists." ,"Gain 1 green, Lose 2 orange", "Add card 11"]</t>
+  </si>
+  <si>
     <t>["Rig the election in favor of the ecologists." ,"Gain 1 green, Lose 3 orange"]</t>
   </si>
   <si>
@@ -172,13 +193,154 @@
     <t>Economy</t>
   </si>
   <si>
+    <t>The economist elections are approaching.</t>
+  </si>
+  <si>
+    <t>["Garner support for the scientists." ,"Gain 1 blue, Lose 2 yellow"]</t>
+  </si>
+  <si>
     <t>1+b,2-y</t>
+  </si>
+  <si>
+    <t>["Garner support for the economists." ,"Gain 1 yellow, Lose 2 blue", "Add card 12"]</t>
   </si>
   <si>
     <t>["Rig the election in favor of the economists." ,"Gain 1 yellow, Lose 3 purple"]</t>
   </si>
   <si>
     <t>1+y,3-b,A12</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>A skirmish has broken out on your border with Novjek and three of your troops are dead. Their government claims a rogue faction is perpetrating the attacks and asks you to overlook the attacks.</t>
+  </si>
+  <si>
+    <t>["Overlook the attack", "Lose 1 red", "Remove this card"]</t>
+  </si>
+  <si>
+    <t>1-r,R08</t>
+  </si>
+  <si>
+    <t>["Launch an attack on the rogue Nojvekian faction", "Gain 2 red, Lose 2 purple", "Remove this card"]</t>
+  </si>
+  <si>
+    <t>2+r,2-p,R08</t>
+  </si>
+  <si>
+    <t>["Pretend to overlook the attack but secretly prepare for war", "Gain 3 red, Gain 1 yellow, Gain 1 orange, Lose 4 purple", "Add card 13"]</t>
+  </si>
+  <si>
+    <t>3+r,1+y,1+o,4-p,A13</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>The industrialists advise you to build more factories to keep up with your growing population.</t>
+  </si>
+  <si>
+    <t>["</t>
+  </si>
+  <si>
+    <t>["Subsidize factory construction", "Gain 3 orange, Lose 1 yellow, Lose 2 Green", "Remove a random card"</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>The Minister of Scientific Research is involved in a major scientific scandal.</t>
+  </si>
+  <si>
+    <t>["Remove the whole scientific cabinet and replace them with popular figureheads</t>
+  </si>
+  <si>
+    <t>["Distribute articles reputing this in popular magazines</t>
+  </si>
+  <si>
+    <t>["Initiate an office of Scientific Corectness to police scientific opinion</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>The Polovian ambassadors have requested a diplomatic marriage with Princess Elizabeth.</t>
+  </si>
+  <si>
+    <t>["Accept and kill Princess Elizabeth",]</t>
+  </si>
+  <si>
+    <t>["Marry old man (mediocre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["Marry hot guy </t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>The largest aquifer is going to dry up. Your country's agriculture output is about to be reduced.</t>
+  </si>
+  <si>
+    <t>["Bulldoze wildlife refuges to build desalination plants</t>
+  </si>
+  <si>
+    <t>["Purchase water from a neighboring country</t>
+  </si>
+  <si>
+    <t>["temporarily reduce agriulatural output to implement sustainable farming</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Housing prices are rocketing. Regular people are unable to afford homes in the current economic climate.</t>
+  </si>
+  <si>
+    <t>["Shunk the poor into specialized communities and begin operating upon them</t>
+  </si>
+  <si>
+    <t>["Stimulus payments</t>
+  </si>
+  <si>
+    <t>["Send the rich to space to pay for the poor people's houses</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Extensive pollution from one of our manufactories has seeped into the major waterways of one of our cities.</t>
+  </si>
+  <si>
+    <t>["Shut down the manufactory and scrub the water supply</t>
+  </si>
+  <si>
+    <t>["Introduce new expensive safety regulations which prevent the factory from producing as much waste</t>
+  </si>
+  <si>
+    <t>["Introduce a manufactory in every major province. This is the new normal.</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>A plague of [country name] is trying to establish diplomatic soverignty</t>
+  </si>
+  <si>
+    <t>["The [country name] are inherently evil, send them to the gulaags</t>
+  </si>
+  <si>
+    <t>The [country name] know no better, thus we must not punish them</t>
+  </si>
+  <si>
+    <t>["Sympathizing with the minority and give conessions</t>
+  </si>
+  <si>
+    <t>Herbicies on someone else's water source</t>
   </si>
 </sst>
 </file>
@@ -228,10 +390,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -584,7 +746,7 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -617,7 +779,7 @@
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -635,35 +797,35 @@
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>8</v>
@@ -672,55 +834,55 @@
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="S3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
+      <c r="A4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>8</v>
@@ -729,40 +891,40 @@
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="S4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>42</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -786,16 +948,16 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>17</v>
@@ -804,37 +966,37 @@
         <v>7</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="S5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
+      <c r="A6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>8</v>
@@ -843,55 +1005,55 @@
         <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="S6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>51</v>
+      <c r="A7" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>8</v>
@@ -900,216 +1062,460 @@
         <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="S7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="S8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="1"/>
+      <c r="P9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="1"/>
+      <c r="P10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="1"/>
+      <c r="P12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="1"/>
+      <c r="P13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="K16" s="1"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
@@ -1129,8 +1535,12 @@
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
@@ -1138,19 +1548,29 @@
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
@@ -1169,7 +1589,9 @@
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
